--- a/biology/Botanique/Muehlenbeckia/Muehlenbeckia.xlsx
+++ b/biology/Botanique/Muehlenbeckia/Muehlenbeckia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muehlenbeckia est un genre de plantes de la famille des Polygonacées originaires de l'hémisphère sud, essentiellement Amérique du Sud, Australie, Papouasie-Nouvelle-Guinée et Nouvelle-Zélande et ont été introduites par les oiseaux et par les cultures dans les zones tempérées de l'hémisphère nord. Certaines sont de minuscules plantes alpines dressées alors que d'autres sont des lianes vigoureuses avec de nombreuses tiges sombres et de rares petites feuilles couleur bronze. Dans les régions quasiment sans gel ces espèces endémiques peuvent devenir envahissantes et difficiles à éradiquer.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre a été donné par le botaniste suisse Carl Meissner en hommage au médecin et botaniste alsacien Henri Gustave Muehlenbeck (1798-1845)[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre a été donné par le botaniste suisse Carl Meissner en hommage au médecin et botaniste alsacien Henri Gustave Muehlenbeck (1798-1845). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 septembre 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 septembre 2020) :
 Muehlenbeckia adpressa (Labill.) Meisn.
 Muehlenbeckia andina J. Brandbyge
 Muehlenbeckia astonii Petrie
@@ -570,7 +586,7 @@
 Muehlenbeckia urubambensis J. Brandbyge
 Muehlenbeckia volcanica (Benth.) Endlicher
 Muehlenbeckia zippelii (Meisn.) Danser
-Selon The Plant List            (4 septembre 2020)[4] :
+Selon The Plant List            (4 septembre 2020) :
 Muehlenbeckia andina Brandbyge
 Muehlenbeckia australis (G. Forster) Meisn.
 Muehlenbeckia complexa Meisn.
@@ -583,7 +599,7 @@
 Muehlenbeckia tiliifolia Wedd.
 Muehlenbeckia urubambensis Brandbyge
 Muehlenbeckia volcanica (Benth.) Endl.
-Selon Tropicos                                           (4 septembre 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (4 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Muehlenbeckia adpressa (Labill.) Meisn.
 Muehlenbeckia andina Brandbyge
 Muehlenbeckia astonii Petrie
